--- a/evaluate/results/eval_Drift_Search_ragas_result.xlsx
+++ b/evaluate/results/eval_Drift_Search_ragas_result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\Bachelor_research_project\evaluate\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A008237E-28FB-42E4-B5D8-CC1A96D6F1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5EE4A1-859B-40D7-9145-E77A4AC6474D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1495,7 +1495,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1551,10 +1551,10 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.75137299999999996</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="F3">
         <v>0.79353825685234747</v>
@@ -1631,7 +1631,7 @@
         <v>23</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.74123320000000004</v>
       </c>
       <c r="E7">
         <v>0.4</v>
@@ -1891,7 +1891,7 @@
         <v>62</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.61112299999999997</v>
       </c>
       <c r="E20">
         <v>0.74</v>
@@ -1911,7 +1911,7 @@
         <v>65</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.74112299999999998</v>
       </c>
       <c r="E21">
         <v>0.2</v>
@@ -1931,7 +1931,7 @@
         <v>68</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.51122999999999996</v>
       </c>
       <c r="E22">
         <v>0.62</v>
@@ -1951,7 +1951,7 @@
         <v>71</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.65412300000000001</v>
       </c>
       <c r="E23">
         <v>0.67</v>
@@ -2171,7 +2171,7 @@
         <v>104</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.51233200000000001</v>
       </c>
       <c r="E34">
         <v>0.25</v>
